--- a/biology/Zoologie/Epictia_magnamaculata/Epictia_magnamaculata.xlsx
+++ b/biology/Zoologie/Epictia_magnamaculata/Epictia_magnamaculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epictia magnamaculata est une espèce de serpents de la famille des Leptotyphlopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epictia magnamaculata est une espèce de serpents de la famille des Leptotyphlopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Epictia magnamaculata[2] mesure 167 mm dont 10,4 mm pour la queue. Cette espèce présente une teinte générale brun foncé. Sa tête est marqué d'une grande tache crème partant de la pointe du museau.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Epictia magnamaculata mesure 167 mm dont 10,4 mm pour la queue. Cette espèce présente une teinte générale brun foncé. Sa tête est marqué d'une grande tache crème partant de la pointe du museau.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique du Honduras. Elle se rencontre sur l'île d'Útila dans le département des Islas de la Bahía.
 </t>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du latin magma, « lie, résidu de parfum », et maculata, « tacheté  », lui a probablement été donné en référence à la tache ornant sa tête.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Taylor, 1940 "1939" : Herpetological Miscellany No I. The University of Kansas science bulletin, vol. 26, n. 15, p. 489-571 (texte intégral).</t>
         </is>
